--- a/RFIDSolution/Server/wwwroot/ExcelResults/STOCK REPORT  - .xlsx
+++ b/RFIDSolution/Server/wwwroot/ExcelResults/STOCK REPORT  - .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t xml:space="preserve">Kho/Stock</t>
   </si>
@@ -66,22 +66,25 @@
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">EPC</t>
-  </si>
-  <si>
     <t xml:space="preserve">REMARKS</t>
   </si>
   <si>
     <t xml:space="preserve">BÁO CÁO TỒN KHO/STOCK REPORT</t>
   </si>
   <si>
-    <t xml:space="preserve">DD3111-111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLAZOR MID JUMBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPECICALS</t>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD3111-104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BITIS HUNTER 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
@@ -99,103 +102,49 @@
     <t xml:space="preserve">KAPM</t>
   </si>
   <si>
+    <t xml:space="preserve">Jammie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhập tét lan 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD3111-103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIDS</t>
+  </si>
+  <si>
     <t xml:space="preserve">G-L-1-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Jammie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e7ef460e-1857-4ede-bec0-017b32b5a0ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddd</t>
+    <t xml:space="preserve">Transfered out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhập tét</t>
   </si>
   <si>
     <t xml:space="preserve">DD3111-106</t>
   </si>
   <si>
-    <t xml:space="preserve">BITIS HUNTER 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdca87d4-4e8c-4361-90a4-3c8d84f00f6f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a0091d88-a807-47e9-a931-73aab8154e67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">345b83a1-5fba-41b7-861e-5ee27c4c8be3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD3111-104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-L-1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eb83640e-18d6-4c8a-9f26-f154afd321a9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">GUCCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADULTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhập tét 234</t>
   </si>
   <si>
     <t xml:space="preserve">DD3111-105</t>
   </si>
   <si>
-    <t xml:space="preserve">GUCCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300833B2DDD9014000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fffff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD3111-103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhập tét</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E28011606000020D895CCC07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhập tét lan 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E28011606000020D895CCAB7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADULTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E28011606000020D895CCC47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhập tét 234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E28011606000020D895CCA77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E28011606000020D895CCC57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E28011606000020D895CCA97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:04 27/09/2021</t>
+    <t xml:space="preserve">10:25 30/09/2021</t>
   </si>
 </sst>
 </file>
@@ -656,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -675,14 +624,15 @@
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="15.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="35.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="43.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -696,8 +646,9 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -711,8 +662,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -723,13 +675,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="K4" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -764,43 +716,46 @@
         <v>13</v>
       </c>
       <c r="L6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="str">
-        <f>VALUE("20")</f>
+        <f>VALUE("11")</f>
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>27</v>
@@ -810,602 +765,240 @@
       </c>
       <c r="M7" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="str">
-        <f>VALUE("19")</f>
-        <v>19</v>
+        <f>VALUE("10")</f>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="str">
-        <f>VALUE("18")</f>
-        <v>18</v>
+        <f>VALUE("9")</f>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="str">
-        <f>VALUE("17")</f>
-        <v>17</v>
+        <f>VALUE("8")</f>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="str">
-        <f>VALUE("16")</f>
-        <v>16</v>
+        <f>VALUE("7")</f>
+        <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="str">
-        <f>VALUE("15")</f>
-        <v>15</v>
+        <f>VALUE("6")</f>
+        <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="str">
-        <f>VALUE("14")</f>
-        <v>14</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="6" t="str">
-        <f>VALUE("1236")</f>
-        <v>1236</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="str">
-        <f>VALUE("13")</f>
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="str">
-        <f>VALUE("12")</f>
-        <v>12</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="6" t="str">
-        <f>VALUE("1236")</f>
-        <v>1236</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="str">
-        <f>VALUE("11")</f>
-        <v>11</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="str">
-        <f>VALUE("10")</f>
-        <v>10</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="str">
-        <f>VALUE("9")</f>
-        <v>9</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="str">
-        <f>VALUE("8")</f>
-        <v>8</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="str">
-        <f>VALUE("7")</f>
-        <v>7</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="str">
-        <f>VALUE("6")</f>
-        <v>6</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
